--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf5-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf5-Fgfr1.xlsx
@@ -549,7 +549,7 @@
         <v>0.7825479339666589</v>
       </c>
       <c r="J2">
-        <v>0.7825479339666589</v>
+        <v>0.7825479339666588</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.25548833333333</v>
+        <v>13.67700833333333</v>
       </c>
       <c r="N2">
-        <v>30.766465</v>
+        <v>41.031025</v>
       </c>
       <c r="O2">
-        <v>0.09996462463766298</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="P2">
-        <v>0.09996462463766297</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="Q2">
-        <v>1.154265467405</v>
+        <v>1.539360964925</v>
       </c>
       <c r="R2">
-        <v>10.388389206645</v>
+        <v>13.854248684325</v>
       </c>
       <c r="S2">
-        <v>0.07822711047995573</v>
+        <v>0.09735978656724693</v>
       </c>
       <c r="T2">
-        <v>0.07822711047995572</v>
+        <v>0.09735978656724692</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,7 +611,7 @@
         <v>0.7825479339666589</v>
       </c>
       <c r="J3">
-        <v>0.7825479339666589</v>
+        <v>0.7825479339666588</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>74.649396</v>
+        <v>74.64939600000001</v>
       </c>
       <c r="N3">
         <v>223.948188</v>
       </c>
       <c r="O3">
-        <v>0.7276395436298834</v>
+        <v>0.679053278848249</v>
       </c>
       <c r="P3">
-        <v>0.7276395436298831</v>
+        <v>0.6790532788482488</v>
       </c>
       <c r="Q3">
         <v>8.401864169196001</v>
       </c>
       <c r="R3">
-        <v>75.61677752276401</v>
+        <v>75.616777522764</v>
       </c>
       <c r="S3">
-        <v>0.5694128215400078</v>
+        <v>0.5313917404159827</v>
       </c>
       <c r="T3">
-        <v>0.5694128215400076</v>
+        <v>0.5313917404159826</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,7 +673,7 @@
         <v>0.7825479339666589</v>
       </c>
       <c r="J4">
-        <v>0.7825479339666589</v>
+        <v>0.7825479339666588</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.869824</v>
+        <v>1.629335666666667</v>
       </c>
       <c r="N4">
-        <v>2.609472</v>
+        <v>4.888007</v>
       </c>
       <c r="O4">
-        <v>0.008478546007235205</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="P4">
-        <v>0.008478546007235204</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="Q4">
-        <v>0.09789956102400002</v>
+        <v>0.183383358619</v>
       </c>
       <c r="R4">
-        <v>0.8810960492160002</v>
+        <v>1.650450227571</v>
       </c>
       <c r="S4">
-        <v>0.006634868661003175</v>
+        <v>0.01159842627034565</v>
       </c>
       <c r="T4">
-        <v>0.006634868661003174</v>
+        <v>0.01159842627034565</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,7 +735,7 @@
         <v>0.7825479339666589</v>
       </c>
       <c r="J5">
-        <v>0.7825479339666589</v>
+        <v>0.7825479339666588</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.20207433333333</v>
+        <v>19.17462033333333</v>
       </c>
       <c r="N5">
-        <v>48.606223</v>
+        <v>57.523861</v>
       </c>
       <c r="O5">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="P5">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="Q5">
-        <v>1.823559668291</v>
+        <v>2.158122693137</v>
       </c>
       <c r="R5">
-        <v>16.412037014619</v>
+        <v>19.423104238233</v>
       </c>
       <c r="S5">
-        <v>0.1235866511357208</v>
+        <v>0.1364945386931957</v>
       </c>
       <c r="T5">
-        <v>0.1235866511357208</v>
+        <v>0.1364945386931957</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,7 +797,7 @@
         <v>0.7825479339666589</v>
       </c>
       <c r="J6">
-        <v>0.7825479339666589</v>
+        <v>0.7825479339666588</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6143926666666666</v>
+        <v>0.801214</v>
       </c>
       <c r="N6">
-        <v>1.843178</v>
+        <v>2.403642</v>
       </c>
       <c r="O6">
-        <v>0.005988747713148012</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="P6">
-        <v>0.00598874771314801</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="Q6">
-        <v>0.06915050902599999</v>
+        <v>0.090177436914</v>
       </c>
       <c r="R6">
-        <v>0.622354581234</v>
+        <v>0.8115969322259999</v>
       </c>
       <c r="S6">
-        <v>0.00468648214997153</v>
+        <v>0.005703442019887891</v>
       </c>
       <c r="T6">
-        <v>0.004686482149971529</v>
+        <v>0.00570344201988789</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.03127533333333333</v>
+        <v>0.03127533333333334</v>
       </c>
       <c r="H7">
-        <v>0.09382599999999999</v>
+        <v>0.09382600000000001</v>
       </c>
       <c r="I7">
-        <v>0.2174520660333411</v>
+        <v>0.2174520660333412</v>
       </c>
       <c r="J7">
-        <v>0.2174520660333411</v>
+        <v>0.2174520660333412</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.25548833333333</v>
+        <v>13.67700833333333</v>
       </c>
       <c r="N7">
-        <v>30.766465</v>
+        <v>41.031025</v>
       </c>
       <c r="O7">
-        <v>0.09996462463766298</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="P7">
-        <v>0.09996462463766297</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="Q7">
-        <v>0.3207438161211111</v>
+        <v>0.4277529946277778</v>
       </c>
       <c r="R7">
-        <v>2.88669434509</v>
+        <v>3.84977695165</v>
       </c>
       <c r="S7">
-        <v>0.02173751415770725</v>
+        <v>0.02705404463890003</v>
       </c>
       <c r="T7">
-        <v>0.02173751415770724</v>
+        <v>0.02705404463890003</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.03127533333333333</v>
+        <v>0.03127533333333334</v>
       </c>
       <c r="H8">
-        <v>0.09382599999999999</v>
+        <v>0.09382600000000001</v>
       </c>
       <c r="I8">
-        <v>0.2174520660333411</v>
+        <v>0.2174520660333412</v>
       </c>
       <c r="J8">
-        <v>0.2174520660333411</v>
+        <v>0.2174520660333412</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>74.649396</v>
+        <v>74.64939600000001</v>
       </c>
       <c r="N8">
         <v>223.948188</v>
       </c>
       <c r="O8">
-        <v>0.7276395436298834</v>
+        <v>0.679053278848249</v>
       </c>
       <c r="P8">
-        <v>0.7276395436298831</v>
+        <v>0.6790532788482488</v>
       </c>
       <c r="Q8">
-        <v>2.334684743032</v>
+        <v>2.334684743032001</v>
       </c>
       <c r="R8">
         <v>21.012162687288</v>
       </c>
       <c r="S8">
-        <v>0.1582267220898756</v>
+        <v>0.1476615384322663</v>
       </c>
       <c r="T8">
-        <v>0.1582267220898755</v>
+        <v>0.1476615384322662</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.03127533333333333</v>
+        <v>0.03127533333333334</v>
       </c>
       <c r="H9">
-        <v>0.09382599999999999</v>
+        <v>0.09382600000000001</v>
       </c>
       <c r="I9">
-        <v>0.2174520660333411</v>
+        <v>0.2174520660333412</v>
       </c>
       <c r="J9">
-        <v>0.2174520660333411</v>
+        <v>0.2174520660333412</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.869824</v>
+        <v>1.629335666666667</v>
       </c>
       <c r="N9">
-        <v>2.609472</v>
+        <v>4.888007</v>
       </c>
       <c r="O9">
-        <v>0.008478546007235205</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="P9">
-        <v>0.008478546007235204</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="Q9">
-        <v>0.02720403554133333</v>
+        <v>0.05095801608688889</v>
       </c>
       <c r="R9">
-        <v>0.244836319872</v>
+        <v>0.458622144782</v>
       </c>
       <c r="S9">
-        <v>0.00184367734623203</v>
+        <v>0.003222935804632125</v>
       </c>
       <c r="T9">
-        <v>0.00184367734623203</v>
+        <v>0.003222935804632125</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.03127533333333333</v>
+        <v>0.03127533333333334</v>
       </c>
       <c r="H10">
-        <v>0.09382599999999999</v>
+        <v>0.09382600000000001</v>
       </c>
       <c r="I10">
-        <v>0.2174520660333411</v>
+        <v>0.2174520660333412</v>
       </c>
       <c r="J10">
-        <v>0.2174520660333411</v>
+        <v>0.2174520660333412</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.20207433333333</v>
+        <v>19.17462033333333</v>
       </c>
       <c r="N10">
-        <v>48.606223</v>
+        <v>57.523861</v>
       </c>
       <c r="O10">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="P10">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="Q10">
-        <v>0.5067252754664443</v>
+        <v>0.5996926424651111</v>
       </c>
       <c r="R10">
-        <v>4.560527479198</v>
+        <v>5.397233782186</v>
       </c>
       <c r="S10">
-        <v>0.0343418868763498</v>
+        <v>0.03792869184466829</v>
       </c>
       <c r="T10">
-        <v>0.03434188687634979</v>
+        <v>0.03792869184466829</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.03127533333333333</v>
+        <v>0.03127533333333334</v>
       </c>
       <c r="H11">
-        <v>0.09382599999999999</v>
+        <v>0.09382600000000001</v>
       </c>
       <c r="I11">
-        <v>0.2174520660333411</v>
+        <v>0.2174520660333412</v>
       </c>
       <c r="J11">
-        <v>0.2174520660333411</v>
+        <v>0.2174520660333412</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6143926666666666</v>
+        <v>0.801214</v>
       </c>
       <c r="N11">
-        <v>1.843178</v>
+        <v>2.403642</v>
       </c>
       <c r="O11">
-        <v>0.005988747713148012</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="P11">
-        <v>0.00598874771314801</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="Q11">
-        <v>0.01921533544755555</v>
+        <v>0.02505823492133333</v>
       </c>
       <c r="R11">
-        <v>0.172938019028</v>
+        <v>0.225524114292</v>
       </c>
       <c r="S11">
-        <v>0.001302265563176482</v>
+        <v>0.001584855312874464</v>
       </c>
       <c r="T11">
-        <v>0.001302265563176482</v>
+        <v>0.001584855312874464</v>
       </c>
     </row>
   </sheetData>
